--- a/Table/J 技能等级配置表.xlsx
+++ b/Table/J 技能等级配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\trunk\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010709A5-EA70-4ACB-B432-9E0F1D500AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50CD13E-FD0C-418C-85E4-6F4E74140152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="600" windowWidth="29040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2B7AAC6A-216F-48CC-8890-999D399F2A00}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2B7AAC6A-216F-48CC-8890-999D399F2A00}">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{63C59D9E-C4C3-4B3A-8D96-08F0DF502CA9}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{63C59D9E-C4C3-4B3A-8D96-08F0DF502CA9}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C361EAA4-2D37-42DE-9DD5-20DD9BE38C6D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C361EAA4-2D37-42DE-9DD5-20DD9BE38C6D}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{BEC1CC16-CE94-4C2F-B36C-7EC59B00F963}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BEC1CC16-CE94-4C2F-B36C-7EC59B00F963}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5A535539-C7D1-44B4-B85C-319DE9218CFA}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5A535539-C7D1-44B4-B85C-319DE9218CFA}">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{629FD4DB-A45B-4E7C-A4AE-75330F94DF6E}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{629FD4DB-A45B-4E7C-A4AE-75330F94DF6E}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F9B7BCB6-8E51-47CE-9F6F-ABF262E0B824}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{F9B7BCB6-8E51-47CE-9F6F-ABF262E0B824}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2C48DC50-486D-4266-AE66-85BCFD0575C7}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2C48DC50-486D-4266-AE66-85BCFD0575C7}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{05A68CD9-8E59-438E-A2B6-C93A88235507}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{05A68CD9-8E59-438E-A2B6-C93A88235507}">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{7755DB8C-E7BA-4F44-9975-06A1BF5C37C1}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{7755DB8C-E7BA-4F44-9975-06A1BF5C37C1}">
       <text>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4B8E0355-E19A-4C07-8252-2CD4470A6622}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{4B8E0355-E19A-4C07-8252-2CD4470A6622}">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0A50A00E-9764-4F83-93C8-35F38C82A798}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{0A50A00E-9764-4F83-93C8-35F38C82A798}">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C7280CB1-C989-436E-98DC-113CEF380738}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{C7280CB1-C989-436E-98DC-113CEF380738}">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{DCADAFEA-8BDE-4949-A40A-4CE6FDFD5CFB}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{DCADAFEA-8BDE-4949-A40A-4CE6FDFD5CFB}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{E16F0B24-EB41-40B1-9BEA-724C89A913D3}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{E16F0B24-EB41-40B1-9BEA-724C89A913D3}">
       <text>
         <r>
           <rPr>
@@ -290,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{584CFC3A-3474-4D98-8CF8-CF88FA999E8B}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{584CFC3A-3474-4D98-8CF8-CF88FA999E8B}">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{5679B26C-C0B1-4AE3-A334-7BB15FDA29D7}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{5679B26C-C0B1-4AE3-A334-7BB15FDA29D7}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{2CCF7171-901A-4316-BBFE-6A72AE8AD4B3}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{2CCF7171-901A-4316-BBFE-6A72AE8AD4B3}">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -490,6 +490,14 @@
   </si>
   <si>
     <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLevelTemp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,24 +555,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="华文新魏"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -615,23 +625,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,162 +947,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" customWidth="1"/>
+    <col min="11" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="11.375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1">
         <v>11001</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
     </row>
